--- a/4site/4site_nearest.xlsx
+++ b/4site/4site_nearest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="32500" windowHeight="20800" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="100" yWindow="240" windowWidth="36720" windowHeight="20900" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,9 @@
     <sheet name="5" sheetId="6" r:id="rId6"/>
     <sheet name="6" sheetId="7" r:id="rId7"/>
     <sheet name="7" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2'!$A$2:$Q$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2'!$B$2:$R$29</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -4291,8 +4290,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4498,7 +4501,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4529,6 +4532,8 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4559,6 +4564,8 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9766,7 +9773,7 @@
   <dimension ref="A3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9876,907 +9883,956 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="17" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="18" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="9" customHeight="1"/>
-    <row r="2" spans="1:17" ht="16" thickBot="1">
-      <c r="A2" t="s">
+    <row r="1" spans="1:18" ht="9" customHeight="1"/>
+    <row r="2" spans="1:18" ht="16" thickBot="1">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="33" customHeight="1">
-      <c r="A3" s="9" t="str">
-        <f>B2</f>
+    <row r="3" spans="1:18" ht="33" customHeight="1">
+      <c r="B3" s="9" t="str">
+        <f>C2</f>
         <v></v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="I3" s="11" t="str">
-        <f>J2</f>
+      <c r="C3" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="J3" s="11" t="str">
+        <f>K2</f>
         <v></v>
       </c>
-      <c r="J3" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="33" customHeight="1">
-      <c r="A4" s="9" t="str">
-        <f>C2</f>
+      <c r="K3" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" ht="33" customHeight="1">
+      <c r="B4" s="9" t="str">
+        <f>D2</f>
         <v></v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>277</v>
+      <c r="C4" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="I4" s="11" t="str">
-        <f>K2</f>
+      <c r="F4" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="J4" s="11" t="str">
+        <f>L2</f>
         <v></v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>277</v>
+      <c r="K4" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="M4" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="33" customHeight="1">
-      <c r="A5" s="9" t="str">
-        <f>D2</f>
+      <c r="N4" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="33" customHeight="1">
+      <c r="B5" s="9" t="str">
+        <f>E2</f>
         <v></v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="I5" s="11" t="str">
-        <f>L2</f>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="J5" s="11" t="str">
+        <f>M2</f>
         <v></v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="Q5" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="R5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="33" customHeight="1">
-      <c r="A6" s="9" t="str">
-        <f>E2</f>
+    <row r="6" spans="1:18" ht="33" customHeight="1">
+      <c r="B6" s="9" t="str">
+        <f>F2</f>
         <v></v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="I6" s="11" t="str">
-        <f>M2</f>
+      <c r="C6" s="20"/>
+      <c r="D6" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="J6" s="11" t="str">
+        <f>N2</f>
         <v></v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="O6" s="18"/>
-    </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1">
-      <c r="A7" s="9" t="str">
-        <f>F2</f>
+      <c r="K6" s="20"/>
+      <c r="L6" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" ht="33" customHeight="1">
+      <c r="B7" s="9" t="str">
+        <f>G2</f>
         <v></v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="C7" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="I7" s="11" t="str">
-        <f>N2</f>
+      <c r="F7" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="J7" s="11" t="str">
+        <f>O2</f>
         <v></v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="K7" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" s="17"/>
       <c r="M7" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="N7" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="33" customHeight="1" thickBot="1">
-      <c r="A8" s="9" t="str">
-        <f>G2</f>
+      <c r="N7" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="33" customHeight="1" thickBot="1">
+      <c r="B8" s="9" t="str">
+        <f>H2</f>
         <v></v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="I8" s="11" t="str">
-        <f>O2</f>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J8" s="11" t="str">
+        <f>P2</f>
         <v></v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="9" customHeight="1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="7" customHeight="1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="B11" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="9" customHeight="1">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="7" customHeight="1">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="C11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="9" customHeight="1"/>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
-      <c r="A13" t="s">
+    <row r="12" spans="1:18" ht="9" customHeight="1"/>
+    <row r="13" spans="1:18" ht="16" thickBot="1">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="31" customHeight="1">
-      <c r="A14" s="4" t="str">
-        <f>B13</f>
+    <row r="14" spans="1:18" ht="31" customHeight="1">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>C13</f>
         <v></v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" s="13"/>
+      <c r="C14" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>277</v>
+      </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="L14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="M14" s="13"/>
-      <c r="N14" s="13" t="s">
-        <v>277</v>
-      </c>
+      <c r="N14" s="13"/>
       <c r="O14" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="15"/>
-    </row>
-    <row r="15" spans="1:17" ht="31" customHeight="1">
-      <c r="A15" s="4" t="str">
-        <f>C13</f>
+      <c r="P14" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" ht="31" customHeight="1">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>D13</f>
         <v></v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="K15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="25" t="s">
-        <v>277</v>
-      </c>
+      <c r="N15" s="17"/>
       <c r="O15" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="19"/>
-    </row>
-    <row r="16" spans="1:17" ht="31" customHeight="1">
-      <c r="A16" s="4" t="str">
-        <f>D13</f>
+      <c r="P15" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" ht="31" customHeight="1">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>E13</f>
         <v></v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="I16" s="17"/>
+      <c r="C16" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="N16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
-      <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="1:17" ht="31" customHeight="1">
-      <c r="A17" s="4" t="str">
-        <f>E13</f>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18" ht="31" customHeight="1">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>F13</f>
         <v></v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="J17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="1:17" ht="31" customHeight="1">
-      <c r="A18" s="4" t="str">
-        <f>F13</f>
+      <c r="L17" s="17"/>
+      <c r="M17" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:18" ht="31" customHeight="1">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>G13</f>
         <v></v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>278</v>
+      </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="K18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="O18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="P18" s="17"/>
-      <c r="Q18" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="31" customHeight="1">
-      <c r="A19" s="4" t="str">
-        <f>G13</f>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="31" customHeight="1">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>H13</f>
         <v></v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="H19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17" t="s">
+        <v>278</v>
+      </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="L19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="M19" s="17"/>
-      <c r="N19" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="O19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="P19" s="17"/>
-      <c r="Q19" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="31" customHeight="1">
-      <c r="A20" s="4" t="str">
-        <f>H13</f>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="31" customHeight="1">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>I13</f>
         <v></v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="K20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="L20" s="17"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:17" ht="31" customHeight="1">
-      <c r="A21" s="4" t="str">
-        <f>I13</f>
+      <c r="Q20" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="1:18" ht="31" customHeight="1">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>J13</f>
         <v></v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="F21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="M21" s="25"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="25" t="s">
-        <v>277</v>
-      </c>
+      <c r="O21" s="17"/>
       <c r="P21" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:17" ht="31" customHeight="1">
-      <c r="A22" s="4" t="str">
-        <f>J13</f>
+      <c r="Q21" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="1:18" ht="31" customHeight="1">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>K13</f>
         <v></v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="M22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:17" ht="31" customHeight="1">
-      <c r="A23" s="4" t="str">
-        <f>K13</f>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="1:18" ht="31" customHeight="1">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>L13</f>
         <v></v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="18"/>
-    </row>
-    <row r="24" spans="1:17" ht="31" customHeight="1">
-      <c r="A24" s="4" t="str">
-        <f>L13</f>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="O23" s="17"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" ht="31" customHeight="1">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>M13</f>
         <v></v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="F24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="M24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17" t="s">
+        <v>278</v>
+      </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="31" customHeight="1">
-      <c r="A25" s="4" t="str">
-        <f>M13</f>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="31" customHeight="1">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>N13</f>
         <v></v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="E25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="N25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17" t="s">
+        <v>278</v>
+      </c>
       <c r="O25" s="17"/>
-      <c r="P25" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q25" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="31" customHeight="1">
-      <c r="A26" s="4" t="str">
-        <f>N13</f>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="R25" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="31" customHeight="1">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>O13</f>
         <v>✖</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="H26" s="17"/>
+      <c r="C26" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="O26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17" t="s">
+        <v>278</v>
+      </c>
       <c r="P26" s="17"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="1:17" ht="31" customHeight="1">
-      <c r="A27" s="4" t="str">
-        <f>O13</f>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="19"/>
+    </row>
+    <row r="27" spans="1:18" ht="31" customHeight="1">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>P13</f>
         <v>✖</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D27" s="17"/>
+      <c r="C27" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="1:17" ht="31" customHeight="1">
-      <c r="A28" s="4" t="str">
-        <f>P13</f>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="19"/>
+    </row>
+    <row r="28" spans="1:18" ht="31" customHeight="1">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>Q13</f>
         <v>✖</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="J28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="K28" s="17"/>
-      <c r="L28" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="N28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="O28" s="17"/>
-      <c r="P28" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q28" s="19"/>
-    </row>
-    <row r="29" spans="1:17" ht="31" customHeight="1" thickBot="1">
-      <c r="A29" s="4" t="str">
-        <f>Q13</f>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="R28" s="19"/>
+    </row>
+    <row r="29" spans="1:18" ht="31" customHeight="1" thickBot="1">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>R13</f>
         <v>✖</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="23"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
-      <c r="F29" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="H29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>277</v>
+      </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="N29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>277</v>
+      </c>
       <c r="O29" s="23"/>
       <c r="P29" s="23"/>
-      <c r="Q29" s="24" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="4"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -10794,8 +10850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13360,8 +13416,8 @@
   </sheetPr>
   <dimension ref="A1:AK96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19921,7 +19977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -20022,21 +20078,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/4site/4site_nearest.xlsx
+++ b/4site/4site_nearest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="240" windowWidth="36720" windowHeight="20900" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="200" yWindow="0" windowWidth="36940" windowHeight="20900" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2'!$B$2:$R$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'4'!$A$21:$AL$58</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="293">
   <si>
     <t>H01</t>
   </si>
@@ -4007,12 +4008,6 @@
     </r>
   </si>
   <si>
-    <t>opposite for first 4 rows and same for the rest</t>
-  </si>
-  <si>
-    <t>* top left and bottom left quadrants are same as H32 and other two are opposite sign</t>
-  </si>
-  <si>
     <t>H24 is the same</t>
   </si>
   <si>
@@ -4032,6 +4027,12 @@
   </si>
   <si>
     <t xml:space="preserve"> _</t>
+  </si>
+  <si>
+    <t>* top left and bottom right quadrants are same as H32 and other two are opposite sign</t>
+  </si>
+  <si>
+    <t>*opposite for first 4 rows and same for the rest</t>
   </si>
 </sst>
 </file>
@@ -4290,8 +4291,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4501,7 +4518,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4534,6 +4551,14 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4566,6 +4591,14 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9828,7 +9861,7 @@
       </c>
       <c r="E5" s="19"/>
       <c r="G5" s="39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26" customHeight="1">
@@ -9886,7 +9919,7 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10051,7 +10084,7 @@
       </c>
       <c r="P5" s="19"/>
       <c r="R5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="33" customHeight="1">
@@ -10850,8 +10883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:Y33"/>
+    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10968,7 +11001,7 @@
       <c r="K4" s="18"/>
       <c r="L4" s="10"/>
       <c r="M4" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -11564,7 +11597,7 @@
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
       <c r="J18" s="51" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
@@ -12455,7 +12488,7 @@
       <c r="X40" s="17"/>
       <c r="Y40" s="19"/>
       <c r="AA40" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="28" customHeight="1">
@@ -13414,971 +13447,923 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK96"/>
+  <dimension ref="A1:AL96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="X61" sqref="X61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="37" width="7.83203125" customWidth="1"/>
-    <col min="38" max="38" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="38" width="7.83203125" customWidth="1"/>
+    <col min="39" max="39" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="B1">
+    <row r="1" spans="2:36">
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="16" thickBot="1">
-      <c r="A2" t="s">
+    <row r="2" spans="2:36" ht="16" thickBot="1">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="28" customHeight="1">
-      <c r="A3" s="35" t="str">
-        <f>B2</f>
+    <row r="3" spans="2:36" ht="28" customHeight="1">
+      <c r="B3" s="35" t="str">
+        <f>C2</f>
         <v></v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="27" t="s">
+        <v>278</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="I3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13" t="s">
+        <v>277</v>
+      </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="L3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13" t="s">
+        <v>277</v>
+      </c>
       <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="13"/>
-      <c r="Q3" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="S3" s="11" t="str">
-        <f>T2</f>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="T3" s="11" t="str">
+        <f>U2</f>
         <v></v>
       </c>
-      <c r="T3" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="U3" s="13"/>
+      <c r="U3" s="27" t="s">
+        <v>278</v>
+      </c>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
-      <c r="X3" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y3" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="AB3" s="13"/>
-      <c r="AC3" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="AE3" s="13"/>
-      <c r="AF3" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="14"/>
       <c r="AH3" s="13"/>
-      <c r="AI3" s="37" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="28" customHeight="1">
-      <c r="A4" s="35" t="str">
-        <f>C2</f>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" ht="28" customHeight="1">
+      <c r="B4" s="35" t="str">
+        <f>D2</f>
         <v></v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="N4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="O4" s="17"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="19"/>
-      <c r="S4" s="11" t="str">
-        <f>U2</f>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="19"/>
+      <c r="T4" s="11" t="str">
+        <f>V2</f>
         <v></v>
       </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="V4" s="17"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
-      <c r="Z4" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA4" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB4" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC4" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD4" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AG4" s="17"/>
-      <c r="AH4" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI4" s="19"/>
-    </row>
-    <row r="5" spans="1:35" ht="28" customHeight="1">
-      <c r="A5" s="35" t="str">
-        <f>D2</f>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="19"/>
+    </row>
+    <row r="5" spans="2:36" ht="28" customHeight="1">
+      <c r="B5" s="35" t="str">
+        <f>E2</f>
         <v></v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="E5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="19"/>
-      <c r="S5" s="11" t="str">
-        <f>V2</f>
+      <c r="J5" s="17"/>
+      <c r="K5" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="19"/>
+      <c r="T5" s="11" t="str">
+        <f>W2</f>
         <v></v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="W5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="X5" s="17"/>
-      <c r="Y5" s="25" t="s">
-        <v>277</v>
-      </c>
+      <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
-      <c r="AB5" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE5" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF5" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG5" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="19"/>
-    </row>
-    <row r="6" spans="1:35" ht="28" customHeight="1">
-      <c r="A6" s="35" t="str">
-        <f>E2</f>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF5" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="19"/>
+    </row>
+    <row r="6" spans="2:36" ht="28" customHeight="1">
+      <c r="B6" s="35" t="str">
+        <f>F2</f>
         <v></v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="G6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
-      <c r="L6" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="M6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="N6" s="17"/>
-      <c r="O6" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="S6" s="11" t="str">
-        <f>W2</f>
+      <c r="O6" s="17"/>
+      <c r="P6" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="T6" s="11" t="str">
+        <f>X2</f>
         <v></v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="17"/>
+      <c r="U6" s="16"/>
       <c r="V6" s="17"/>
-      <c r="W6" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="X6" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y6" s="31" t="s">
+        <v>277</v>
+      </c>
       <c r="Z6" s="17"/>
-      <c r="AA6" s="25" t="s">
-        <v>277</v>
-      </c>
+      <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
-      <c r="AD6" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="31" t="s">
+        <v>277</v>
+      </c>
       <c r="AF6" s="17"/>
-      <c r="AG6" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH6" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI6" s="34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" ht="28" customHeight="1">
-      <c r="A7" s="35" t="str">
-        <f>F2</f>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" ht="28" customHeight="1">
+      <c r="B7" s="35" t="str">
+        <f>G2</f>
         <v>✖</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16" t="s">
+        <v>277</v>
+      </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="J7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="K7" s="17"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
-      <c r="Q7" s="19"/>
-      <c r="S7" s="11" t="str">
-        <f>X2</f>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="19"/>
+      <c r="T7" s="11" t="str">
+        <f>Y2</f>
         <v>✖</v>
       </c>
-      <c r="T7" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="U7" s="17"/>
+      <c r="U7" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="V7" s="17"/>
-      <c r="W7" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="X7" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y7" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA7" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y7" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z7" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AC7" s="17"/>
-      <c r="AD7" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="25"/>
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
       <c r="AH7" s="17"/>
-      <c r="AI7" s="19"/>
-    </row>
-    <row r="8" spans="1:35" ht="28" customHeight="1">
-      <c r="A8" s="35" t="str">
-        <f>G2</f>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="19"/>
+    </row>
+    <row r="8" spans="2:36" ht="28" customHeight="1">
+      <c r="B8" s="35" t="str">
+        <f>H2</f>
         <v>✖</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="K8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="19"/>
-      <c r="S8" s="11" t="str">
-        <f>Y2</f>
+      <c r="O8" s="17"/>
+      <c r="P8" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="19"/>
+      <c r="T8" s="11" t="str">
+        <f>Z2</f>
         <v>✖</v>
       </c>
-      <c r="T8" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="25" t="s">
-        <v>277</v>
-      </c>
+      <c r="U8" s="20"/>
+      <c r="V8" s="17"/>
       <c r="W8" s="17"/>
-      <c r="X8" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y8" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z8" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z8" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA8" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AD8" s="17"/>
       <c r="AE8" s="17"/>
       <c r="AF8" s="17"/>
-      <c r="AG8" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="19"/>
-    </row>
-    <row r="9" spans="1:35" ht="28" customHeight="1">
-      <c r="A9" s="35" t="str">
-        <f>H2</f>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="19"/>
+    </row>
+    <row r="9" spans="2:36" ht="28" customHeight="1">
+      <c r="B9" s="35" t="str">
+        <f>I2</f>
         <v>✖</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="I9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
-      <c r="P9" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q9" s="19"/>
-      <c r="S9" s="11" t="str">
-        <f>Z2</f>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="T9" s="11" t="str">
+        <f>AA2</f>
         <v>✖</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="U9" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="V9" s="17"/>
+      <c r="U9" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="W9" s="17"/>
-      <c r="X9" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y9" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z9" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA9" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="AB9" s="17"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
-      <c r="AE9" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="AE9" s="17"/>
       <c r="AF9" s="17"/>
       <c r="AG9" s="17"/>
-      <c r="AH9" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI9" s="19"/>
-    </row>
-    <row r="10" spans="1:35" ht="28" customHeight="1">
-      <c r="A10" s="35" t="str">
-        <f>I2</f>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ9" s="19"/>
+    </row>
+    <row r="10" spans="2:36" ht="28" customHeight="1">
+      <c r="B10" s="35" t="str">
+        <f>J2</f>
         <v>✖</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="K10" s="17" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" s="25" t="s">
         <v>277</v>
       </c>
       <c r="L10" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
-      <c r="Q10" s="19"/>
-      <c r="S10" s="11" t="str">
-        <f>AA2</f>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="19"/>
+      <c r="T10" s="11" t="str">
+        <f>AB2</f>
         <v>✖</v>
       </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="X10" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y10" s="17"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="Z10" s="17"/>
-      <c r="AA10" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB10" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC10" s="17" t="s">
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC10" s="25" t="s">
         <v>277</v>
       </c>
       <c r="AD10" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="AE10" s="17"/>
+      <c r="AE10" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AF10" s="17"/>
       <c r="AG10" s="17"/>
       <c r="AH10" s="17"/>
-      <c r="AI10" s="19"/>
-    </row>
-    <row r="11" spans="1:35" ht="28" customHeight="1">
-      <c r="A11" s="35" t="str">
-        <f>J2</f>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="19"/>
+    </row>
+    <row r="11" spans="2:36" ht="28" customHeight="1">
+      <c r="B11" s="35" t="str">
+        <f>K2</f>
         <v>✖</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="E11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="25"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
-      <c r="Q11" s="19"/>
-      <c r="S11" s="11" t="str">
-        <f>AB2</f>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="19"/>
+      <c r="T11" s="11" t="str">
+        <f>AC2</f>
         <v>✖</v>
       </c>
-      <c r="T11" s="16"/>
-      <c r="U11" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="V11" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="W11" s="17"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="W11" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="X11" s="17"/>
-      <c r="Y11" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB11" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC11" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC11" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD11" s="25"/>
       <c r="AE11" s="17"/>
       <c r="AF11" s="17"/>
-      <c r="AG11" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="AG11" s="17"/>
       <c r="AH11" s="17"/>
-      <c r="AI11" s="19"/>
-    </row>
-    <row r="12" spans="1:35" ht="28" customHeight="1">
-      <c r="A12" s="35" t="str">
-        <f>K2</f>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="19"/>
+    </row>
+    <row r="12" spans="2:36" ht="28" customHeight="1">
+      <c r="B12" s="35" t="str">
+        <f>L2</f>
         <v>✖</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="17"/>
+      <c r="C12" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="L12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="M12" s="17"/>
-      <c r="N12" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="O12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-      <c r="S12" s="11" t="str">
-        <f>AC2</f>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18"/>
+      <c r="T12" s="11" t="str">
+        <f>AD2</f>
         <v>✖</v>
       </c>
-      <c r="T12" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="U12" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="V12" s="17"/>
+      <c r="U12" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
-      <c r="AA12" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB12" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC12" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="AE12" s="17"/>
-      <c r="AF12" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AH12" s="17"/>
-      <c r="AI12" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="28" customHeight="1">
-      <c r="A13" s="35" t="str">
-        <f>L2</f>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="18"/>
+    </row>
+    <row r="13" spans="2:36" ht="28" customHeight="1">
+      <c r="B13" s="35" t="str">
+        <f>M2</f>
         <v>✖</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" s="25"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="J13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="K13" s="17"/>
-      <c r="L13" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="O13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="N13" s="25"/>
+      <c r="O13" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="P13" s="17"/>
-      <c r="Q13" s="19"/>
-      <c r="S13" s="11" t="str">
-        <f>AD2</f>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="19"/>
+      <c r="T13" s="11" t="str">
+        <f>AE2</f>
         <v>✖</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="W13" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="X13" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y13" s="17"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="X13" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y13" s="25"/>
       <c r="Z13" s="17"/>
-      <c r="AA13" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AC13" s="17"/>
-      <c r="AD13" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE13" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF13" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AH13" s="17"/>
-      <c r="AI13" s="19"/>
-    </row>
-    <row r="14" spans="1:35" ht="28" customHeight="1">
-      <c r="A14" s="35" t="str">
-        <f>M2</f>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="19"/>
+    </row>
+    <row r="14" spans="2:36" ht="28" customHeight="1">
+      <c r="B14" s="35" t="str">
+        <f>N2</f>
         <v>✖</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q14" s="19"/>
-      <c r="S14" s="11" t="str">
-        <f>AE2</f>
+      <c r="L14" s="17"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="R14" s="19"/>
+      <c r="T14" s="11" t="str">
+        <f>AF2</f>
         <v>✖</v>
       </c>
-      <c r="T14" s="16"/>
-      <c r="U14" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="V14" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="W14" s="17"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="W14" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
-      <c r="Z14" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="17"/>
-      <c r="AD14" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE14" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF14" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI14" s="19"/>
-    </row>
-    <row r="15" spans="1:35" ht="28" customHeight="1">
-      <c r="A15" s="35" t="str">
-        <f>N2</f>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG14" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ14" s="19"/>
+    </row>
+    <row r="15" spans="2:36" ht="28" customHeight="1">
+      <c r="B15" s="35" t="str">
+        <f>O2</f>
         <v>✖</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -14386,686 +14371,685 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="K15" s="17"/>
       <c r="L15" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="M15" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="O15" s="17"/>
+      <c r="M15" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="P15" s="17"/>
-      <c r="Q15" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="S15" s="11" t="str">
-        <f>AF2</f>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="T15" s="11" t="str">
+        <f>AG2</f>
         <v>✖</v>
       </c>
-      <c r="T15" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="U15" s="17"/>
-      <c r="V15" s="25" t="s">
-        <v>277</v>
-      </c>
+      <c r="U15" s="20"/>
+      <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
-      <c r="AC15" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="AC15" s="17"/>
       <c r="AD15" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="AE15" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF15" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG15" s="17"/>
+      <c r="AE15" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF15" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG15" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="AH15" s="17"/>
-      <c r="AI15" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" ht="28" customHeight="1">
-      <c r="A16" s="35" t="str">
-        <f>O2</f>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" ht="28" customHeight="1">
+      <c r="B16" s="35" t="str">
+        <f>P2</f>
         <v>✖</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="H16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q16" s="19"/>
-      <c r="S16" s="11" t="str">
-        <f>AG2</f>
+      <c r="O16" s="17"/>
+      <c r="P16" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="R16" s="19"/>
+      <c r="T16" s="11" t="str">
+        <f>AH2</f>
         <v>✖</v>
       </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="W16" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z16" s="17"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="X16" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AA16" s="17"/>
-      <c r="AB16" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="AB16" s="17"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
       <c r="AE16" s="17"/>
       <c r="AF16" s="17"/>
-      <c r="AG16" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AH16" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI16" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" ht="28" customHeight="1">
-      <c r="A17" s="35" t="str">
-        <f>P2</f>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI16" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ16" s="19"/>
+    </row>
+    <row r="17" spans="1:38" ht="28" customHeight="1">
+      <c r="B17" s="35" t="str">
+        <f>Q2</f>
         <v>✖</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
-      <c r="M17" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="P17" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q17" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="S17" s="11" t="str">
-        <f>AH2</f>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q17" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="T17" s="11" t="str">
+        <f>AI2</f>
         <v>✖</v>
       </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="V17" s="17"/>
-      <c r="W17" s="25" t="s">
-        <v>277</v>
-      </c>
+      <c r="U17" s="16"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="17"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
-      <c r="Z17" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
-      <c r="AE17" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH17" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI17" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" ht="28" customHeight="1" thickBot="1">
-      <c r="A18" s="35" t="str">
-        <f>Q2</f>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI17" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AJ17" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" ht="28" customHeight="1" thickBot="1">
+      <c r="B18" s="35" t="str">
+        <f>R2</f>
         <v>✖</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="21" t="s">
+        <v>277</v>
+      </c>
       <c r="D18" s="23"/>
-      <c r="E18" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22" t="s">
+        <v>277</v>
+      </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="O18" s="23"/>
-      <c r="P18" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q18" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="S18" s="11" t="str">
-        <f>AI2</f>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="T18" s="11" t="str">
+        <f>AJ2</f>
         <v>✖</v>
       </c>
-      <c r="T18" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="U18" s="23"/>
+      <c r="U18" s="36" t="s">
+        <v>277</v>
+      </c>
       <c r="V18" s="23"/>
-      <c r="W18" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="X18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="32" t="s">
+        <v>277</v>
+      </c>
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
       <c r="AB18" s="23"/>
-      <c r="AC18" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="22"/>
       <c r="AE18" s="23"/>
-      <c r="AF18" s="23" t="s">
-        <v>277</v>
-      </c>
+      <c r="AF18" s="23"/>
       <c r="AG18" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="AH18" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI18" s="29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37">
-      <c r="T20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37">
-      <c r="B21">
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ18" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
+      <c r="U20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>6</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>7</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>8</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>9</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>10</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>11</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>12</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>13</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>14</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>15</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>16</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>17</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>18</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>19</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>20</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>21</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>22</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>23</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>24</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>25</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>26</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>27</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>28</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>29</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>30</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>31</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>32</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>33</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>34</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>35</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="16" thickBot="1">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:38" ht="16" thickBot="1">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="Q22" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="S22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="T22" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="U22" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="V22" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="W22" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="W22" s="4" t="s">
+      <c r="X22" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="Y22" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="Y22" s="4" t="s">
+      <c r="Z22" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="Z22" s="4" t="s">
+      <c r="AA22" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="AA22" s="4" t="s">
+      <c r="AB22" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AB22" s="4" t="s">
+      <c r="AC22" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AC22" s="4" t="s">
+      <c r="AD22" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AD22" s="4" t="s">
+      <c r="AE22" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AE22" s="4" t="s">
+      <c r="AF22" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AF22" s="4" t="s">
+      <c r="AG22" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="AG22" s="4" t="s">
+      <c r="AH22" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="AH22" s="4" t="s">
+      <c r="AI22" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AI22" s="4" t="s">
+      <c r="AJ22" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AJ22" s="4" t="s">
+      <c r="AK22" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AK22" s="4" t="s">
+      <c r="AL22" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="28" customHeight="1">
-      <c r="A23" s="4" t="str">
-        <f>B22</f>
+    <row r="23" spans="1:38" ht="28" customHeight="1">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>C22</f>
         <v></v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="27" t="s">
+        <v>278</v>
+      </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13" t="s">
+        <v>277</v>
+      </c>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
-      <c r="V23" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="W23" s="13"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="14"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13" t="s">
+        <v>277</v>
+      </c>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
-      <c r="AK23" s="15"/>
-    </row>
-    <row r="24" spans="1:37" ht="28" customHeight="1">
-      <c r="A24" s="4" t="str">
-        <f>C22</f>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="15"/>
+    </row>
+    <row r="24" spans="1:38" ht="28" customHeight="1">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>D22</f>
         <v></v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="J24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="K24" s="17"/>
-      <c r="L24" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="M24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="U24" s="17"/>
-      <c r="V24" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="W24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="V24" s="17"/>
+      <c r="W24" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="X24" s="17"/>
       <c r="Y24" s="17"/>
-      <c r="Z24" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
-      <c r="AE24" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AG24" s="17"/>
       <c r="AH24" s="17"/>
       <c r="AI24" s="17"/>
       <c r="AJ24" s="17"/>
-      <c r="AK24" s="19"/>
-    </row>
-    <row r="25" spans="1:37" ht="28" customHeight="1">
-      <c r="A25" s="4" t="str">
-        <f>D22</f>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="19"/>
+    </row>
+    <row r="25" spans="1:38" ht="28" customHeight="1">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>E22</f>
         <v></v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="E25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="M25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="N25" s="17"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="25"/>
       <c r="Q25" s="17"/>
-      <c r="R25" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="S25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="T25" s="17"/>
-      <c r="U25" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="V25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
-      <c r="AA25" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="25"/>
       <c r="AE25" s="17"/>
       <c r="AF25" s="17"/>
       <c r="AG25" s="17"/>
       <c r="AH25" s="17"/>
       <c r="AI25" s="17"/>
       <c r="AJ25" s="17"/>
-      <c r="AK25" s="19"/>
-    </row>
-    <row r="26" spans="1:37" ht="28" customHeight="1">
-      <c r="A26" s="4" t="str">
-        <f>E22</f>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="19"/>
+    </row>
+    <row r="26" spans="1:38" ht="28" customHeight="1">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>F22</f>
         <v></v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="F26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="N26" s="31"/>
-      <c r="O26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="O26" s="31"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="T26" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="U26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="U26" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
       <c r="X26" s="17"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AB26" s="17"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
@@ -15075,156 +15059,165 @@
       <c r="AH26" s="17"/>
       <c r="AI26" s="17"/>
       <c r="AJ26" s="17"/>
-      <c r="AK26" s="19"/>
-    </row>
-    <row r="27" spans="1:37" ht="28" customHeight="1">
-      <c r="A27" s="4" t="str">
-        <f>F22</f>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="19"/>
+    </row>
+    <row r="27" spans="1:38" ht="28" customHeight="1">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>G22</f>
         <v></v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
-      <c r="M27" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="N27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="R27" s="17"/>
-      <c r="S27" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="T27" s="17"/>
-      <c r="U27" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="X27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="S27" s="17"/>
+      <c r="T27" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="U27" s="17"/>
+      <c r="V27" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
-      <c r="AA27" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AC27" s="17"/>
-      <c r="AD27" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AF27" s="17"/>
       <c r="AG27" s="17"/>
       <c r="AH27" s="17"/>
       <c r="AI27" s="17"/>
       <c r="AJ27" s="17"/>
-      <c r="AK27" s="19"/>
-    </row>
-    <row r="28" spans="1:37" ht="28" customHeight="1">
-      <c r="A28" s="4" t="str">
-        <f>G22</f>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="19"/>
+    </row>
+    <row r="28" spans="1:38" ht="28" customHeight="1">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>H22</f>
         <v></v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="J28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="R28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
-      <c r="W28" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="X28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
       <c r="AA28" s="17"/>
       <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
-      <c r="AE28" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AG28" s="17"/>
       <c r="AH28" s="17"/>
       <c r="AI28" s="17"/>
       <c r="AJ28" s="17"/>
-      <c r="AK28" s="19"/>
-    </row>
-    <row r="29" spans="1:37" ht="28" customHeight="1">
-      <c r="A29" s="4" t="str">
-        <f>H22</f>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="19"/>
+    </row>
+    <row r="29" spans="1:38" ht="28" customHeight="1">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>I22</f>
         <v>✖</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="16" t="s">
+        <v>277</v>
+      </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="K29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="O29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="25"/>
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
       <c r="Y29" s="17"/>
@@ -15234,52 +15227,55 @@
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
-      <c r="AF29" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="AF29" s="17"/>
       <c r="AG29" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="AH29" s="17"/>
+      <c r="AH29" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AI29" s="17"/>
       <c r="AJ29" s="17"/>
-      <c r="AK29" s="19"/>
-    </row>
-    <row r="30" spans="1:37" ht="28" customHeight="1">
-      <c r="A30" s="4" t="str">
-        <f>I22</f>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="19"/>
+    </row>
+    <row r="30" spans="1:38" ht="28" customHeight="1">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f>J22</f>
         <v>✖</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="L30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="P30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="25"/>
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
@@ -15290,46 +15286,49 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="17"/>
-      <c r="AF30" s="25" t="s">
-        <v>277</v>
-      </c>
+      <c r="AF30" s="17"/>
       <c r="AG30" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="AH30" s="17"/>
+      <c r="AH30" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AI30" s="17"/>
       <c r="AJ30" s="17"/>
-      <c r="AK30" s="19"/>
-    </row>
-    <row r="31" spans="1:37" ht="28" customHeight="1">
-      <c r="A31" s="4" t="str">
-        <f>J22</f>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="19"/>
+    </row>
+    <row r="31" spans="1:38" ht="28" customHeight="1">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f>K22</f>
         <v>✖</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="17"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="M31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="N31" s="17"/>
       <c r="O31" s="17"/>
-      <c r="P31" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
@@ -15339,10 +15338,10 @@
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
-      <c r="AA31" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
       <c r="AE31" s="17"/>
@@ -15351,38 +15350,41 @@
       <c r="AH31" s="17"/>
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
-      <c r="AK31" s="19"/>
-    </row>
-    <row r="32" spans="1:37" ht="28" customHeight="1">
-      <c r="A32" s="4" t="str">
-        <f>K22</f>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="19"/>
+    </row>
+    <row r="32" spans="1:38" ht="28" customHeight="1">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f>L22</f>
         <v>✖</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="25"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="N32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="M32" s="17"/>
+      <c r="N32" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
-      <c r="Q32" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="R32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
@@ -15390,46 +15392,49 @@
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
-      <c r="Z32" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AB32" s="17"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
       <c r="AE32" s="17"/>
-      <c r="AF32" s="25"/>
+      <c r="AF32" s="17"/>
       <c r="AG32" s="25"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="25"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="19"/>
-    </row>
-    <row r="33" spans="1:37" ht="28" customHeight="1">
-      <c r="A33" s="4" t="str">
-        <f>L22</f>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="19"/>
+    </row>
+    <row r="33" spans="1:38" ht="28" customHeight="1">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f>M22</f>
         <v>✖</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="17"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="M33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
@@ -15445,48 +15450,51 @@
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
-      <c r="AC33" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AE33" s="17"/>
       <c r="AF33" s="17"/>
-      <c r="AG33" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="19"/>
-    </row>
-    <row r="34" spans="1:37" ht="28" customHeight="1">
-      <c r="A34" s="4" t="str">
-        <f>M22</f>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="19"/>
+    </row>
+    <row r="34" spans="1:38" ht="28" customHeight="1">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f>N22</f>
         <v>✖</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="N34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="M34" s="17"/>
+      <c r="N34" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
@@ -15500,58 +15508,61 @@
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
-      <c r="AB34" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
       <c r="AF34" s="17"/>
-      <c r="AG34" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="19"/>
-    </row>
-    <row r="35" spans="1:37" ht="28" customHeight="1">
-      <c r="A35" s="4" t="str">
-        <f>N22</f>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="19"/>
+    </row>
+    <row r="35" spans="1:38" ht="28" customHeight="1">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f>O22</f>
         <v>✖</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="17"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
-      <c r="N35" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="R35" s="17"/>
-      <c r="S35" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="S35" s="17"/>
       <c r="T35" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="U35" s="17"/>
+      <c r="U35" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="V35" s="17"/>
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
@@ -15567,44 +15578,47 @@
       <c r="AH35" s="17"/>
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17"/>
-      <c r="AK35" s="19"/>
-    </row>
-    <row r="36" spans="1:37" ht="28" customHeight="1">
-      <c r="A36" s="4" t="str">
-        <f>O22</f>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="19"/>
+    </row>
+    <row r="36" spans="1:38" ht="28" customHeight="1">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f>P22</f>
         <v>✖</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="J36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
-      <c r="O36" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="R36" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="S36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S36" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="T36" s="17"/>
-      <c r="U36" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="V36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
       <c r="Y36" s="17"/>
@@ -15614,46 +15628,49 @@
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
       <c r="AE36" s="17"/>
-      <c r="AF36" s="25"/>
+      <c r="AF36" s="17"/>
       <c r="AG36" s="25"/>
       <c r="AH36" s="25"/>
-      <c r="AI36" s="17"/>
+      <c r="AI36" s="25"/>
       <c r="AJ36" s="17"/>
-      <c r="AK36" s="19"/>
-    </row>
-    <row r="37" spans="1:37" ht="28" customHeight="1">
-      <c r="A37" s="4" t="str">
-        <f>P22</f>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="19"/>
+    </row>
+    <row r="37" spans="1:38" ht="28" customHeight="1">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f>Q22</f>
         <v>✖</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D37" s="17"/>
+      <c r="C37" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="K37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="O37" s="17"/>
-      <c r="P37" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="R37" s="17"/>
+      <c r="S37" s="25"/>
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
       <c r="V37" s="17"/>
@@ -15666,51 +15683,54 @@
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
       <c r="AE37" s="17"/>
-      <c r="AF37" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AH37" s="17"/>
       <c r="AI37" s="17"/>
-      <c r="AJ37" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK37" s="19"/>
-    </row>
-    <row r="38" spans="1:37" ht="28" customHeight="1">
-      <c r="A38" s="4" t="str">
-        <f>Q22</f>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL37" s="19"/>
+    </row>
+    <row r="38" spans="1:38" ht="28" customHeight="1">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f>R22</f>
         <v>✖</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="H38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
-      <c r="K38" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="L38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
-      <c r="O38" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="R38" s="17"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="S38" s="17"/>
+      <c r="T38" s="25"/>
       <c r="U38" s="17"/>
       <c r="V38" s="17"/>
       <c r="W38" s="17"/>
@@ -15722,30 +15742,33 @@
       <c r="AC38" s="17"/>
       <c r="AD38" s="17"/>
       <c r="AE38" s="17"/>
-      <c r="AF38" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AH38" s="17"/>
       <c r="AI38" s="17"/>
-      <c r="AJ38" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK38" s="19"/>
-    </row>
-    <row r="39" spans="1:37" ht="28" customHeight="1">
-      <c r="A39" s="4" t="str">
-        <f>R22</f>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL38" s="19"/>
+    </row>
+    <row r="39" spans="1:38" ht="28" customHeight="1">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f>S22</f>
         <v>✖</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="E39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
@@ -15755,191 +15778,200 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="S39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
       <c r="V39" s="17"/>
       <c r="W39" s="17"/>
-      <c r="X39" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="Z39" s="17"/>
       <c r="AA39" s="17"/>
       <c r="AB39" s="17"/>
       <c r="AC39" s="17"/>
       <c r="AD39" s="17"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="25"/>
       <c r="AG39" s="17"/>
-      <c r="AH39" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI39" s="17"/>
-      <c r="AJ39" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK39" s="19"/>
-    </row>
-    <row r="40" spans="1:37" ht="28" customHeight="1">
-      <c r="A40" s="4" t="str">
-        <f>S22</f>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL39" s="19"/>
+    </row>
+    <row r="40" spans="1:38" ht="28" customHeight="1">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f>T22</f>
         <v>✖</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="G40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
-      <c r="N40" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="O40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="P40" s="17"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="T40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="U40" s="17"/>
       <c r="V40" s="17"/>
       <c r="W40" s="17"/>
       <c r="X40" s="17"/>
-      <c r="Y40" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
       <c r="AC40" s="17"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="25"/>
       <c r="AF40" s="17"/>
       <c r="AG40" s="17"/>
-      <c r="AH40" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI40" s="17"/>
-      <c r="AJ40" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK40" s="19"/>
-    </row>
-    <row r="41" spans="1:37" ht="28" customHeight="1">
-      <c r="A41" s="4" t="str">
-        <f>T22</f>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL40" s="19"/>
+    </row>
+    <row r="41" spans="1:38" ht="28" customHeight="1">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f>U22</f>
         <v>✖</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="F41" s="17"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="25"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
-      <c r="N41" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="O41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
       <c r="S41" s="17"/>
-      <c r="T41" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="U41" s="17"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="V41" s="17"/>
+      <c r="W41" s="25"/>
       <c r="X41" s="17"/>
-      <c r="Y41" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AA41" s="17"/>
       <c r="AB41" s="17"/>
       <c r="AC41" s="17"/>
       <c r="AD41" s="17"/>
       <c r="AE41" s="17"/>
       <c r="AF41" s="17"/>
-      <c r="AG41" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="AG41" s="17"/>
       <c r="AH41" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="AI41" s="17"/>
+      <c r="AI41" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AJ41" s="17"/>
-      <c r="AK41" s="19"/>
-    </row>
-    <row r="42" spans="1:37" ht="28" customHeight="1">
-      <c r="A42" s="4" t="str">
-        <f>U22</f>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="19"/>
+    </row>
+    <row r="42" spans="1:38" ht="28" customHeight="1">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f>V22</f>
         <v>✖</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="17"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="25"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
-      <c r="O42" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="P42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
       <c r="S42" s="17"/>
       <c r="T42" s="17"/>
-      <c r="U42" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="V42" s="17"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="W42" s="17"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="Z42" s="17"/>
       <c r="AA42" s="17"/>
       <c r="AB42" s="17"/>
@@ -15947,28 +15979,31 @@
       <c r="AD42" s="17"/>
       <c r="AE42" s="17"/>
       <c r="AF42" s="17"/>
-      <c r="AG42" s="25" t="s">
-        <v>277</v>
-      </c>
+      <c r="AG42" s="17"/>
       <c r="AH42" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="AI42" s="17"/>
+      <c r="AI42" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AJ42" s="17"/>
-      <c r="AK42" s="19"/>
-    </row>
-    <row r="43" spans="1:37" ht="28" customHeight="1">
-      <c r="A43" s="4" t="str">
-        <f>V22</f>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="19"/>
+    </row>
+    <row r="43" spans="1:38" ht="28" customHeight="1">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f>W22</f>
         <v>✖</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D43" s="17"/>
+      <c r="C43" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -15984,51 +16019,54 @@
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
       <c r="S43" s="17"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="W43" s="17"/>
-      <c r="X43" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="Z43" s="17"/>
       <c r="AA43" s="17"/>
-      <c r="AB43" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC43" s="17"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="25"/>
       <c r="AF43" s="17"/>
-      <c r="AG43" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AI43" s="17"/>
       <c r="AJ43" s="17"/>
-      <c r="AK43" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37" ht="28" customHeight="1">
-      <c r="A44" s="4" t="str">
-        <f>W22</f>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" ht="28" customHeight="1">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f>X22</f>
         <v>✖</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="H44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
@@ -16041,41 +16079,44 @@
       <c r="R44" s="17"/>
       <c r="S44" s="17"/>
       <c r="T44" s="17"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AA44" s="17"/>
       <c r="AB44" s="17"/>
-      <c r="AC44" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD44" s="17"/>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="17"/>
-      <c r="AG44" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AI44" s="17"/>
       <c r="AJ44" s="17"/>
-      <c r="AK44" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" ht="28" customHeight="1">
-      <c r="A45" s="4" t="str">
-        <f>X22</f>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" ht="28" customHeight="1">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f>Y22</f>
         <v>✖</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
@@ -16090,47 +16131,50 @@
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
-      <c r="R45" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="S45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="T45" s="17"/>
-      <c r="U45" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="V45" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="W45" s="17"/>
-      <c r="X45" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="W45" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="Z45" s="17"/>
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="17"/>
-      <c r="AD45" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AF45" s="17"/>
       <c r="AG45" s="17"/>
       <c r="AH45" s="17"/>
       <c r="AI45" s="17"/>
       <c r="AJ45" s="17"/>
-      <c r="AK45" s="19"/>
-    </row>
-    <row r="46" spans="1:37" ht="28" customHeight="1">
-      <c r="A46" s="4" t="str">
-        <f>Y22</f>
+      <c r="AK45" s="17"/>
+      <c r="AL45" s="19"/>
+    </row>
+    <row r="46" spans="1:38" ht="28" customHeight="1">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>Z22</f>
         <v>✖</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="25"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -16143,58 +16187,61 @@
       <c r="P46" s="17"/>
       <c r="Q46" s="17"/>
       <c r="R46" s="17"/>
-      <c r="S46" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="S46" s="17"/>
       <c r="T46" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="U46" s="17"/>
+      <c r="U46" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="V46" s="17"/>
-      <c r="W46" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="AA46" s="17"/>
       <c r="AB46" s="17"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17"/>
-      <c r="AE46" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AG46" s="17"/>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="25"/>
       <c r="AJ46" s="17"/>
-      <c r="AK46" s="18"/>
-    </row>
-    <row r="47" spans="1:37" ht="28" customHeight="1">
-      <c r="A47" s="4" t="str">
-        <f>Z22</f>
+      <c r="AK46" s="17"/>
+      <c r="AL46" s="18"/>
+    </row>
+    <row r="47" spans="1:38" ht="28" customHeight="1">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f>AA22</f>
         <v>✖</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="F47" s="17"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
-      <c r="K47" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="L47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
@@ -16208,48 +16255,51 @@
       <c r="W47" s="17"/>
       <c r="X47" s="17"/>
       <c r="Y47" s="17"/>
-      <c r="Z47" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AD47" s="17"/>
       <c r="AE47" s="17"/>
       <c r="AF47" s="17"/>
       <c r="AG47" s="17"/>
       <c r="AH47" s="17"/>
-      <c r="AI47" s="17" t="s">
-        <v>277</v>
-      </c>
+      <c r="AI47" s="17"/>
       <c r="AJ47" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="AK47" s="19"/>
-    </row>
-    <row r="48" spans="1:37" ht="28" customHeight="1">
-      <c r="A48" s="4" t="str">
-        <f>AA22</f>
+      <c r="AK47" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL47" s="19"/>
+    </row>
+    <row r="48" spans="1:38" ht="28" customHeight="1">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <f>AB22</f>
         <v>✖</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="G48" s="17"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-      <c r="J48" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="K48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
@@ -16265,33 +16315,36 @@
       <c r="X48" s="17"/>
       <c r="Y48" s="17"/>
       <c r="Z48" s="17"/>
-      <c r="AA48" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB48" s="17"/>
-      <c r="AC48" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AE48" s="17"/>
       <c r="AF48" s="17"/>
       <c r="AG48" s="17"/>
       <c r="AH48" s="17"/>
-      <c r="AI48" s="25" t="s">
-        <v>277</v>
-      </c>
+      <c r="AI48" s="17"/>
       <c r="AJ48" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="AK48" s="19"/>
-    </row>
-    <row r="49" spans="1:37" ht="28" customHeight="1">
-      <c r="A49" s="4" t="str">
-        <f>AB22</f>
+      <c r="AK48" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL48" s="19"/>
+    </row>
+    <row r="49" spans="1:38" ht="28" customHeight="1">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f>AC22</f>
         <v>✖</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="17"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
@@ -16301,10 +16354,10 @@
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
-      <c r="M49" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="N49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="O49" s="17"/>
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
@@ -16312,50 +16365,53 @@
       <c r="S49" s="17"/>
       <c r="T49" s="17"/>
       <c r="U49" s="17"/>
-      <c r="V49" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="W49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="X49" s="17"/>
       <c r="Y49" s="17"/>
-      <c r="Z49" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB49" s="17"/>
+      <c r="AC49" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AF49" s="17"/>
       <c r="AG49" s="17"/>
       <c r="AH49" s="17"/>
       <c r="AI49" s="17"/>
       <c r="AJ49" s="17"/>
-      <c r="AK49" s="19"/>
-    </row>
-    <row r="50" spans="1:37" ht="28" customHeight="1">
-      <c r="A50" s="4" t="str">
-        <f>AC22</f>
+      <c r="AK49" s="17"/>
+      <c r="AL49" s="19"/>
+    </row>
+    <row r="50" spans="1:38" ht="28" customHeight="1">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f>AD22</f>
         <v>✖</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="17"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
-      <c r="L50" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="M50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="N50" s="17"/>
       <c r="O50" s="17"/>
       <c r="P50" s="17"/>
@@ -16365,45 +16421,48 @@
       <c r="T50" s="17"/>
       <c r="U50" s="17"/>
       <c r="V50" s="17"/>
-      <c r="W50" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="X50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="Y50" s="17"/>
       <c r="Z50" s="17"/>
-      <c r="AA50" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB50" s="17"/>
-      <c r="AC50" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF50" s="17"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC50" s="17"/>
+      <c r="AD50" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AG50" s="17"/>
       <c r="AH50" s="17"/>
-      <c r="AI50" s="25"/>
-      <c r="AJ50" s="17"/>
-      <c r="AK50" s="18"/>
-    </row>
-    <row r="51" spans="1:37" ht="28" customHeight="1">
-      <c r="A51" s="4" t="str">
-        <f>AD22</f>
+      <c r="AI50" s="17"/>
+      <c r="AJ50" s="25"/>
+      <c r="AK50" s="17"/>
+      <c r="AL50" s="18"/>
+    </row>
+    <row r="51" spans="1:38" ht="28" customHeight="1">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f>AE22</f>
         <v>✖</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="16" t="s">
+        <v>277</v>
+      </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="G51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
@@ -16415,54 +16474,55 @@
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
       <c r="R51" s="17"/>
-      <c r="S51" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="T51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="25"/>
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
       <c r="W51" s="17"/>
-      <c r="X51" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="Z51" s="17"/>
       <c r="AA51" s="17"/>
-      <c r="AB51" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE51" s="17"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD51" s="17"/>
+      <c r="AE51" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="AF51" s="17"/>
       <c r="AG51" s="17"/>
       <c r="AH51" s="17"/>
       <c r="AI51" s="17"/>
-      <c r="AJ51" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK51" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37" ht="28" customHeight="1">
-      <c r="A52" s="4" t="str">
-        <f>AE22</f>
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL51" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" ht="28" customHeight="1">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f>AF22</f>
         <v>✖</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D52" s="17"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="H52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
@@ -16472,69 +16532,70 @@
       <c r="O52" s="17"/>
       <c r="P52" s="17"/>
       <c r="Q52" s="17"/>
-      <c r="R52" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="S52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="25"/>
       <c r="T52" s="17"/>
       <c r="U52" s="17"/>
       <c r="V52" s="17"/>
       <c r="W52" s="17"/>
       <c r="X52" s="17"/>
-      <c r="Y52" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="AA52" s="17"/>
       <c r="AB52" s="17"/>
-      <c r="AC52" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF52" s="28"/>
-      <c r="AG52" s="17"/>
+      <c r="AC52" s="17"/>
+      <c r="AD52" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE52" s="17"/>
+      <c r="AF52" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG52" s="28"/>
       <c r="AH52" s="17"/>
       <c r="AI52" s="17"/>
-      <c r="AJ52" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK52" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37" ht="28" customHeight="1">
-      <c r="A53" s="4" t="str">
-        <f>AF22</f>
+      <c r="AJ52" s="17"/>
+      <c r="AK52" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL52" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" ht="28" customHeight="1">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f>AG22</f>
         <v>✖✖</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="J53" s="17"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="K53" s="17"/>
+      <c r="L53" s="25"/>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q53" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="R53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="R53" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="S53" s="17"/>
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
@@ -16545,62 +16606,65 @@
       <c r="Z53" s="17"/>
       <c r="AA53" s="17"/>
       <c r="AB53" s="17"/>
-      <c r="AC53" s="25"/>
-      <c r="AD53" s="17"/>
+      <c r="AC53" s="17"/>
+      <c r="AD53" s="25"/>
       <c r="AE53" s="17"/>
-      <c r="AF53" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG53" s="17"/>
+      <c r="AF53" s="17"/>
+      <c r="AG53" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="AH53" s="17"/>
       <c r="AI53" s="17"/>
       <c r="AJ53" s="17"/>
-      <c r="AK53" s="19"/>
-    </row>
-    <row r="54" spans="1:37" ht="28" customHeight="1">
-      <c r="A54" s="4" t="str">
-        <f>AG22</f>
+      <c r="AK53" s="17"/>
+      <c r="AL53" s="19"/>
+    </row>
+    <row r="54" spans="1:38" ht="28" customHeight="1">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f>AH22</f>
         <v>✖✖</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="J54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="K54" s="17"/>
-      <c r="L54" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="M54" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="N54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="N54" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
       <c r="S54" s="17"/>
-      <c r="T54" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="U54" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="V54" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="W54" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="X54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="V54" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="W54" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="X54" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="Y54" s="17"/>
       <c r="Z54" s="17"/>
       <c r="AA54" s="17"/>
@@ -16609,21 +16673,24 @@
       <c r="AD54" s="17"/>
       <c r="AE54" s="17"/>
       <c r="AF54" s="17"/>
-      <c r="AG54" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AH54" s="17"/>
+      <c r="AG54" s="17"/>
+      <c r="AH54" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="AI54" s="17"/>
       <c r="AJ54" s="17"/>
-      <c r="AK54" s="19"/>
-    </row>
-    <row r="55" spans="1:37" ht="28" customHeight="1">
-      <c r="A55" s="4" t="str">
-        <f>AH22</f>
+      <c r="AK54" s="17"/>
+      <c r="AL54" s="19"/>
+    </row>
+    <row r="55" spans="1:38" ht="28" customHeight="1">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f>AI22</f>
         <v>✖✖</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -16635,26 +16702,26 @@
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="25"/>
       <c r="Q55" s="17"/>
-      <c r="R55" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="S55" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="T55" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="U55" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="V55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="T55" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="U55" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="V55" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="W55" s="17"/>
       <c r="X55" s="17"/>
-      <c r="Y55" s="25"/>
-      <c r="Z55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="25"/>
       <c r="AA55" s="17"/>
       <c r="AB55" s="17"/>
       <c r="AC55" s="17"/>
@@ -16662,20 +16729,23 @@
       <c r="AE55" s="17"/>
       <c r="AF55" s="17"/>
       <c r="AG55" s="17"/>
-      <c r="AH55" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI55" s="17"/>
+      <c r="AH55" s="17"/>
+      <c r="AI55" s="28" t="s">
+        <v>278</v>
+      </c>
       <c r="AJ55" s="17"/>
-      <c r="AK55" s="19"/>
-    </row>
-    <row r="56" spans="1:37" ht="28" customHeight="1">
-      <c r="A56" s="4" t="str">
-        <f>AI22</f>
+      <c r="AK55" s="17"/>
+      <c r="AL55" s="19"/>
+    </row>
+    <row r="56" spans="1:38" ht="28" customHeight="1">
+      <c r="A56">
+        <v>34</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f>AJ22</f>
         <v>✖✖</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -16683,14 +16753,14 @@
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="M56" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="N56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="N56" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
       <c r="Q56" s="17"/>
@@ -16702,32 +16772,35 @@
       <c r="W56" s="17"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
-      <c r="Z56" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA56" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB56" s="17"/>
-      <c r="AC56" s="25"/>
-      <c r="AD56" s="17"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB56" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC56" s="17"/>
+      <c r="AD56" s="25"/>
       <c r="AE56" s="17"/>
       <c r="AF56" s="17"/>
       <c r="AG56" s="17"/>
       <c r="AH56" s="17"/>
-      <c r="AI56" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AJ56" s="17"/>
-      <c r="AK56" s="19"/>
-    </row>
-    <row r="57" spans="1:37" ht="28" customHeight="1">
-      <c r="A57" s="4" t="str">
-        <f>AJ22</f>
+      <c r="AI56" s="17"/>
+      <c r="AJ56" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK56" s="17"/>
+      <c r="AL56" s="19"/>
+    </row>
+    <row r="57" spans="1:38" ht="28" customHeight="1">
+      <c r="A57">
+        <v>35</v>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f>AK22</f>
         <v>✖✖</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
@@ -16740,54 +16813,57 @@
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
-      <c r="P57" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q57" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="R57" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="S57" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="T57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="R57" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S57" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="T57" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="U57" s="17"/>
       <c r="V57" s="17"/>
       <c r="W57" s="17"/>
       <c r="X57" s="17"/>
-      <c r="Y57" s="25"/>
-      <c r="Z57" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA57" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB57" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AC57" s="17"/>
-      <c r="AD57" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE57" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF57" s="17"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF57" s="25" t="s">
+        <v>277</v>
+      </c>
       <c r="AG57" s="17"/>
       <c r="AH57" s="17"/>
       <c r="AI57" s="17"/>
-      <c r="AJ57" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="AK57" s="19"/>
-    </row>
-    <row r="58" spans="1:37" ht="28" customHeight="1" thickBot="1">
-      <c r="A58" s="4" t="str">
-        <f>AK22</f>
+      <c r="AJ57" s="17"/>
+      <c r="AK57" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL57" s="19"/>
+    </row>
+    <row r="58" spans="1:38" ht="28" customHeight="1" thickBot="1">
+      <c r="A58">
+        <v>36</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f>AL22</f>
         <v>✖✖</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="23"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
@@ -16806,151 +16882,269 @@
       <c r="S58" s="23"/>
       <c r="T58" s="23"/>
       <c r="U58" s="23"/>
-      <c r="V58" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="W58" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="23"/>
+      <c r="V58" s="23"/>
+      <c r="W58" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="X58" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y58" s="23"/>
+      <c r="Z58" s="22"/>
       <c r="AA58" s="23"/>
       <c r="AB58" s="23"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE58" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF58" s="23"/>
+      <c r="AC58" s="23"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF58" s="22" t="s">
+        <v>277</v>
+      </c>
       <c r="AG58" s="23"/>
       <c r="AH58" s="23"/>
       <c r="AI58" s="23"/>
       <c r="AJ58" s="23"/>
-      <c r="AK58" s="29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="59" spans="1:37">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:37">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:37">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:37">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:37">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:37">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="4"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="4"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="4"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="4"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="4"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="4"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="4"/>
+      <c r="AK58" s="23"/>
+      <c r="AL58" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38">
+      <c r="B59" s="4"/>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>6</v>
+      </c>
+      <c r="N59">
+        <v>6</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>4</v>
+      </c>
+      <c r="Q59">
+        <v>6</v>
+      </c>
+      <c r="R59">
+        <v>6</v>
+      </c>
+      <c r="S59">
+        <v>6</v>
+      </c>
+      <c r="T59">
+        <v>6</v>
+      </c>
+      <c r="U59">
+        <v>6</v>
+      </c>
+      <c r="V59">
+        <v>6</v>
+      </c>
+      <c r="W59">
+        <v>6</v>
+      </c>
+      <c r="X59">
+        <v>6</v>
+      </c>
+      <c r="Y59">
+        <v>4</v>
+      </c>
+      <c r="Z59">
+        <v>4</v>
+      </c>
+      <c r="AA59">
+        <v>6</v>
+      </c>
+      <c r="AB59">
+        <v>6</v>
+      </c>
+      <c r="AC59">
+        <v>4</v>
+      </c>
+      <c r="AD59">
+        <v>4</v>
+      </c>
+      <c r="AE59">
+        <v>6</v>
+      </c>
+      <c r="AF59">
+        <v>6</v>
+      </c>
+      <c r="AG59">
+        <v>4</v>
+      </c>
+      <c r="AH59">
+        <v>8</v>
+      </c>
+      <c r="AI59">
+        <v>4</v>
+      </c>
+      <c r="AJ59">
+        <v>4</v>
+      </c>
+      <c r="AK59">
+        <v>8</v>
+      </c>
+      <c r="AL59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38">
+      <c r="B60" s="4"/>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:38">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:38">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:38">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="30" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="38" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -16963,8 +17157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18408,7 +18602,7 @@
       <c r="X38" s="17"/>
       <c r="Y38" s="19"/>
       <c r="AA38" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="28" customHeight="1">
@@ -19229,7 +19423,7 @@
         <v>175</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28" customHeight="1">
@@ -19977,8 +20171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20035,7 +20229,7 @@
       </c>
       <c r="E4" s="19"/>
       <c r="G4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28" customHeight="1">
@@ -20072,6 +20266,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/4site/4site_nearest.xlsx
+++ b/4site/4site_nearest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="0" windowWidth="33500" windowHeight="20340" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="1480" yWindow="0" windowWidth="33500" windowHeight="20340" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="294">
   <si>
     <t>H01</t>
   </si>
@@ -4380,8 +4380,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4682,7 +4688,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4749,6 +4755,9 @@
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4815,6 +4824,9 @@
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14216,7 +14228,7 @@
   </sheetPr>
   <dimension ref="A1:AL96"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
@@ -18135,8 +18147,8 @@
   </sheetPr>
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:Z62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19815,7 +19827,9 @@
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="F39" s="11" t="s">
+        <v>289</v>
+      </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -19823,15 +19837,21 @@
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
+      <c r="N39" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11" t="s">
+        <v>289</v>
+      </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
+      <c r="S39" s="11" t="s">
+        <v>289</v>
+      </c>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
+      <c r="V39" s="11"/>
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
       <c r="Y39" s="10"/>
@@ -19851,21 +19871,33 @@
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="G40" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
+      <c r="L40" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="M40" s="14"/>
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
+      <c r="P40" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
+      <c r="R40" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="S40" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
+      <c r="U40" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="V40" s="14"/>
       <c r="W40" s="14"/>
       <c r="X40" s="14"/>
@@ -19882,25 +19914,33 @@
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F41" s="14"/>
+      <c r="E41" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="25"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="H41" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
+      <c r="M41" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
+      <c r="R41" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
+      <c r="U41" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="V41" s="14"/>
       <c r="W41" s="14"/>
       <c r="X41" s="14"/>
@@ -19916,7 +19956,7 @@
         <v>✖</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -19925,23 +19965,33 @@
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="I42" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
       <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
+      <c r="O42" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
+      <c r="Q42" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
+      <c r="T42" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="U42" s="14"/>
       <c r="V42" s="14"/>
       <c r="W42" s="14"/>
       <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
+      <c r="Y42" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="Z42" s="16"/>
     </row>
     <row r="43" spans="1:26" ht="28" customHeight="1">
@@ -19954,7 +20004,7 @@
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="22" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -19963,17 +20013,23 @@
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+      <c r="J43" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
+      <c r="Q43" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
+      <c r="T43" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
       <c r="W43" s="14"/>
@@ -19991,7 +20047,9 @@
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="25" t="s">
@@ -19999,21 +20057,27 @@
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
+      <c r="K44" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
+      <c r="O44" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
+      <c r="R44" s="22"/>
       <c r="S44" s="14"/>
       <c r="T44" s="14"/>
       <c r="U44" s="14"/>
       <c r="V44" s="14"/>
       <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="Z44" s="16"/>
     </row>
     <row r="45" spans="1:26" ht="28" customHeight="1">
@@ -20024,12 +20088,12 @@
         <f>I38</f>
         <v>✖</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>277</v>
-      </c>
+      <c r="C45" s="13"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="F45" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="25" t="s">
@@ -20037,11 +20101,15 @@
       </c>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
+      <c r="L45" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
+      <c r="P45" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
       <c r="S45" s="14"/>
@@ -20051,7 +20119,9 @@
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
       <c r="Y45" s="14"/>
-      <c r="Z45" s="16"/>
+      <c r="Z45" s="16" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="46" spans="1:26" ht="28" customHeight="1">
       <c r="A46">
@@ -20065,26 +20135,34 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
+      <c r="G46" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="H46" s="22"/>
       <c r="I46" s="14"/>
       <c r="J46" s="25" t="s">
         <v>278</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
+      <c r="M46" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
+      <c r="Q46" s="22"/>
       <c r="R46" s="14"/>
       <c r="S46" s="14"/>
       <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
+      <c r="U46" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="Y46" s="14"/>
       <c r="Z46" s="16"/>
     </row>
@@ -20097,13 +20175,13 @@
         <v>✖</v>
       </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="14" t="s">
-        <v>277</v>
-      </c>
+      <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
+      <c r="H47" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="25" t="s">
@@ -20111,19 +20189,29 @@
       </c>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
+      <c r="N47" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
+      <c r="P47" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
       <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
+      <c r="U47" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="V47" s="14"/>
       <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
+      <c r="X47" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="Y47" s="14"/>
-      <c r="Z47" s="16"/>
+      <c r="Z47" s="15" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="48" spans="1:26" ht="28" customHeight="1">
       <c r="A48">
@@ -20135,13 +20223,15 @@
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="22" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
+      <c r="I48" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="25" t="s">
@@ -20153,14 +20243,18 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="U48" s="14"/>
       <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
+      <c r="W48" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
-      <c r="Z48" s="16"/>
+      <c r="Z48" s="15"/>
     </row>
     <row r="49" spans="1:26" ht="28" customHeight="1">
       <c r="A49">
@@ -20172,12 +20266,16 @@
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="E49" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
+      <c r="J49" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="25" t="s">
@@ -20189,12 +20287,20 @@
       <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
       <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
+      <c r="T49" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
+      <c r="V49" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="W49" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
+      <c r="Y49" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="Z49" s="16"/>
     </row>
     <row r="50" spans="1:26" ht="28" customHeight="1">
@@ -20206,7 +20312,7 @@
         <v>✖</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -20215,7 +20321,9 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
+      <c r="K50" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
       <c r="N50" s="25" t="s">
@@ -20228,11 +20336,15 @@
       <c r="S50" s="14"/>
       <c r="T50" s="14"/>
       <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
+      <c r="V50" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="W50" s="14"/>
       <c r="X50" s="14"/>
-      <c r="Y50" s="14"/>
-      <c r="Z50" s="16"/>
+      <c r="Y50" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z50" s="31"/>
     </row>
     <row r="51" spans="1:26" ht="28" customHeight="1">
       <c r="A51">
@@ -20242,14 +20354,16 @@
         <f>O38</f>
         <v>✖✖</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>277</v>
-      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="F51" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="H51" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
@@ -20260,11 +20374,9 @@
         <v>278</v>
       </c>
       <c r="P51" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q51" s="22" t="s">
-        <v>277</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="Q51" s="22"/>
       <c r="R51" s="14" t="s">
         <v>277</v>
       </c>
@@ -20286,7 +20398,7 @@
         <v>✖✖</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>277</v>
@@ -20295,20 +20407,24 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="I52" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+      <c r="K52" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
       <c r="O52" s="22" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="P52" s="25" t="s">
         <v>278</v>
       </c>
       <c r="Q52" s="22" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R52" s="14"/>
       <c r="S52" s="14"/>
@@ -20331,20 +20447,22 @@
       <c r="C53" s="13"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="F53" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
+      <c r="J53" s="22"/>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
       <c r="N53" s="14"/>
-      <c r="O53" s="22" t="s">
-        <v>277</v>
-      </c>
+      <c r="O53" s="22"/>
       <c r="P53" s="22" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="Q53" s="25" t="s">
         <v>278</v>
@@ -20355,7 +20473,9 @@
       <c r="U53" s="14"/>
       <c r="V53" s="14"/>
       <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
+      <c r="X53" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="Y53" s="14"/>
       <c r="Z53" s="16"/>
     </row>
@@ -20369,12 +20489,14 @@
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="E54" s="14"/>
+        <v>289</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="H54" s="22"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
@@ -20389,8 +20511,10 @@
       <c r="R54" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="U54" s="14"/>
       <c r="V54" s="14"/>
       <c r="W54" s="14"/>
@@ -20407,7 +20531,7 @@
         <v>✖✖</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>277</v>
@@ -20419,19 +20543,23 @@
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
+      <c r="L55" s="22"/>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
+      <c r="R55" s="22"/>
       <c r="S55" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="T55" s="14"/>
+      <c r="T55" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
+      <c r="V55" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="W55" s="14"/>
       <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
@@ -20448,20 +20576,32 @@
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="F56" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
+      <c r="L56" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
+      <c r="R56" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="S56" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="T56" s="25" t="s">
         <v>278</v>
       </c>
@@ -20482,15 +20622,21 @@
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="E57" s="14"/>
+        <v>289</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
+      <c r="J57" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
@@ -20503,8 +20649,12 @@
       <c r="U57" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
+      <c r="V57" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="W57" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="14"/>
       <c r="Z57" s="16"/>
@@ -20517,9 +20667,7 @@
         <f>V38</f>
         <v>✖✖</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>277</v>
-      </c>
+      <c r="C58" s="17"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -20529,19 +20677,27 @@
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
+      <c r="M58" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="N58" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
       <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
+      <c r="S58" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
+      <c r="U58" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="V58" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="W58" s="14"/>
+      <c r="W58" s="22"/>
       <c r="X58" s="14"/>
       <c r="Y58" s="14"/>
       <c r="Z58" s="16"/>
@@ -20561,10 +20717,14 @@
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
+      <c r="J59" s="22"/>
       <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
+      <c r="L59" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
@@ -20572,14 +20732,18 @@
       <c r="R59" s="14"/>
       <c r="S59" s="14"/>
       <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
+      <c r="U59" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="V59" s="22"/>
       <c r="W59" s="25" t="s">
         <v>278</v>
       </c>
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
-      <c r="Z59" s="16"/>
+      <c r="Z59" s="16" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="60" spans="1:26" ht="28" customHeight="1">
       <c r="A60">
@@ -20594,16 +20758,22 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
+      <c r="H60" s="22"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
+      <c r="J60" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
+      <c r="Q60" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="R60" s="14"/>
       <c r="S60" s="14"/>
       <c r="T60" s="14"/>
@@ -20613,8 +20783,10 @@
       <c r="X60" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="Y60" s="25"/>
-      <c r="Z60" s="16"/>
+      <c r="Y60" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z60" s="15"/>
     </row>
     <row r="61" spans="1:26" ht="28" customHeight="1">
       <c r="A61">
@@ -20627,15 +20799,23 @@
       <c r="C61" s="13"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="F61" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
+      <c r="H61" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="M61" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
@@ -20645,11 +20825,15 @@
       <c r="U61" s="14"/>
       <c r="V61" s="14"/>
       <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
+      <c r="X61" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="Y61" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="Z61" s="16"/>
+      <c r="Z61" s="15" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="62" spans="1:26" ht="28" customHeight="1" thickBot="1">
       <c r="A62">
@@ -20665,10 +20849,14 @@
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
+      <c r="I62" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
+      <c r="K62" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L62" s="19"/>
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
       <c r="O62" s="20"/>
@@ -20679,9 +20867,13 @@
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
       <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="20"/>
+      <c r="W62" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19" t="s">
+        <v>289</v>
+      </c>
       <c r="Z62" s="26" t="s">
         <v>278</v>
       </c>
@@ -20713,7 +20905,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="29" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="39" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
